--- a/01_Documentacion/G6_MAPA_PROC_14N.xlsx
+++ b/01_Documentacion/G6_MAPA_PROC_14N.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uespe-my.sharepoint.com/personal/cabazurto1_espe_edu_ec/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\SEMESTRES U\10MO NIVEL\ASEGURAMIENTO CALIDAD SOFTWARE\REPOSITORIO\01_Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1557A12-FB8C-49FA-88CF-E1335FC4252F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B85B0C-3492-4BF8-A37D-1ADC14F5ABF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4997B183-6BA5-427C-8615-A6F9FCD80629}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4997B183-6BA5-427C-8615-A6F9FCD80629}"/>
   </bookViews>
   <sheets>
     <sheet name="MAPA 10 N" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1085,7 +1085,7 @@
         <a:p>
           <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1093,7 +1093,7 @@
               <a:ea typeface="+mn-lt"/>
               <a:cs typeface="+mn-lt"/>
             </a:rPr>
-            <a:t>Chef</a:t>
+            <a:t>Asistente</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -4841,8 +4841,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8883937" y="6630284"/>
-          <a:ext cx="837639" cy="924662"/>
+          <a:off x="9126894" y="6588181"/>
+          <a:ext cx="859725" cy="910857"/>
           <a:chOff x="9484702" y="2765066"/>
           <a:chExt cx="1089646" cy="1074767"/>
         </a:xfrm>
@@ -5299,8 +5299,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12952712" y="6738808"/>
-          <a:ext cx="807822" cy="927236"/>
+          <a:off x="13315628" y="6693944"/>
+          <a:ext cx="842471" cy="916192"/>
           <a:chOff x="9484702" y="2765066"/>
           <a:chExt cx="1089646" cy="1074767"/>
         </a:xfrm>
@@ -8337,13 +8337,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAE3A4D-6C57-42F5-813D-06E56D78CC84}">
   <dimension ref="A2:BA84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L55" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:53" ht="30" customHeight="1">
+    <row r="2" spans="1:53" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -8399,7 +8399,7 @@
       <c r="AZ2" s="5"/>
       <c r="BA2" s="5"/>
     </row>
-    <row r="3" spans="1:53" ht="30" customHeight="1">
+    <row r="3" spans="1:53" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -8434,7 +8434,7 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="6"/>
     </row>
-    <row r="4" spans="1:53" ht="30" customHeight="1">
+    <row r="4" spans="1:53" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -8469,7 +8469,7 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
     </row>
-    <row r="5" spans="1:53" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -8504,7 +8504,7 @@
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
     </row>
-    <row r="6" spans="1:53" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -8539,28 +8539,28 @@
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
     </row>
-    <row r="7" spans="1:53" ht="12.75" customHeight="1">
+    <row r="7" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:53" ht="12.75" customHeight="1">
+    <row r="8" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:53" ht="15" customHeight="1">
+    <row r="9" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:53" ht="15" customHeight="1">
+    <row r="10" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>1</v>
@@ -8569,7 +8569,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:53" ht="15" customHeight="1">
+    <row r="11" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>2</v>
@@ -8578,21 +8578,21 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:53" ht="15" customHeight="1">
+    <row r="12" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:53" ht="15" customHeight="1">
+    <row r="13" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:53" ht="15" customHeight="1">
+    <row r="14" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>3</v>
@@ -8600,7 +8600,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:53" ht="15" customHeight="1">
+    <row r="15" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>4</v>
       </c>
@@ -8609,21 +8609,21 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:53" ht="15" customHeight="1">
+    <row r="16" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="15" customHeight="1">
+    <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="15" customHeight="1">
+    <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -8634,28 +8634,28 @@
       </c>
       <c r="V18" s="3"/>
     </row>
-    <row r="19" spans="1:23" ht="15" customHeight="1">
+    <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="15" customHeight="1">
+    <row r="20" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="15" customHeight="1">
+    <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="15" customHeight="1">
+    <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>6</v>
@@ -8664,7 +8664,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="15" customHeight="1">
+    <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>7</v>
       </c>
@@ -8674,7 +8674,7 @@
       <c r="E23" s="1"/>
       <c r="W23" s="3"/>
     </row>
-    <row r="24" spans="1:23" ht="15" customHeight="1">
+    <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="D24" s="1"/>
@@ -8683,21 +8683,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15" customHeight="1">
+    <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="15" customHeight="1">
+    <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="15" customHeight="1">
+    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
         <v>9</v>
@@ -8706,7 +8706,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="15" customHeight="1">
+    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>10</v>
@@ -8715,14 +8715,14 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="15" customHeight="1">
+    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="15" customHeight="1">
+    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>11</v>
@@ -8731,7 +8731,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:23" ht="15" customHeight="1">
+    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>12</v>
       </c>
@@ -8740,14 +8740,14 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:23" ht="15" customHeight="1">
+    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1">
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
         <v>13</v>
@@ -8756,7 +8756,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1">
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>14</v>
@@ -8768,14 +8768,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1">
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:10" ht="15" customHeight="1">
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
         <v>16</v>
@@ -8784,7 +8784,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:10" ht="15" customHeight="1">
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>17</v>
       </c>
@@ -8793,14 +8793,14 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1">
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1">
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
         <v>18</v>
@@ -8809,7 +8809,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1">
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>19</v>
@@ -8818,14 +8818,14 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1">
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1">
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
         <v>20</v>
@@ -8834,7 +8834,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1">
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>21</v>
@@ -8843,92 +8843,92 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1">
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1">
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:10" ht="15" customHeight="1">
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:10" ht="15" customHeight="1"/>
-    <row r="48" spans="1:10" ht="15" customHeight="1"/>
-    <row r="49" spans="1:2" ht="15" customHeight="1"/>
-    <row r="50" spans="1:2" ht="15" customHeight="1">
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" customHeight="1">
+    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" customHeight="1">
+    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:2" ht="15" customHeight="1"/>
-    <row r="54" spans="1:2" ht="15" customHeight="1"/>
-    <row r="55" spans="1:2" ht="15" customHeight="1">
+    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15" customHeight="1">
+    <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" customHeight="1"/>
-    <row r="58" spans="1:2" ht="15" customHeight="1"/>
-    <row r="61" spans="1:2">
+    <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="2:3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="2:3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C70" s="1"/>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="2:3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:33">
+    <row r="82" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B82" s="6" t="s">
         <v>30</v>
       </c>
@@ -8964,7 +8964,7 @@
       <c r="AF82" s="6"/>
       <c r="AG82" s="6"/>
     </row>
-    <row r="83" spans="2:33">
+    <row r="83" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -8998,7 +8998,7 @@
       <c r="AF83" s="6"/>
       <c r="AG83" s="6"/>
     </row>
-    <row r="84" spans="2:33">
+    <row r="84" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -9048,23 +9048,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100EDB39E34F5A9B445B025C05B2A05D030" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b862f8177741bc0144f8bdeca99601f0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f1f31ffb-9912-4459-99c8-b26e82094b51" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a47f7967ce9c055f87f5b0315139c571" ns3:_="">
     <xsd:import namespace="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
@@ -9234,14 +9217,55 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13C89260-6A33-414C-83F0-E5B9246A3D13}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258D9EFD-9B95-4534-A4E8-FFA045315823}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0533F00C-0963-49FD-8F56-1D7BEE7748FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0533F00C-0963-49FD-8F56-1D7BEE7748FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258D9EFD-9B95-4534-A4E8-FFA045315823}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13C89260-6A33-414C-83F0-E5B9246A3D13}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_Documentacion/G6_MAPA_PROC_14N.xlsx
+++ b/01_Documentacion/G6_MAPA_PROC_14N.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\SEMESTRES U\10MO NIVEL\ASEGURAMIENTO CALIDAD SOFTWARE\REPOSITORIO\01_Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B85B0C-3492-4BF8-A37D-1ADC14F5ABF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCC2FD9-8894-44D6-8658-9432B139CF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4997B183-6BA5-427C-8615-A6F9FCD80629}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">UNIVERSIDAD DE LAS FUERZAS ARMADAS UFA - ESPE
  MAPA DE PROCESOS DE 10 NIVELES Proceso normal de venta de </t>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>NRC:    2567           / G6        estudiantes:  Barriga, Bazurto, Macas, Otuna</t>
+  </si>
+  <si>
+    <t>Nivel 13</t>
+  </si>
+  <si>
+    <t>Nivel 14</t>
   </si>
 </sst>
 </file>
@@ -8337,8 +8343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAE3A4D-6C57-42F5-813D-06E56D78CC84}">
   <dimension ref="A2:BA84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8904,7 +8910,7 @@
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.3">
@@ -8920,7 +8926,7 @@
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.3">
@@ -9048,6 +9054,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100EDB39E34F5A9B445B025C05B2A05D030" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b862f8177741bc0144f8bdeca99601f0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f1f31ffb-9912-4459-99c8-b26e82094b51" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a47f7967ce9c055f87f5b0315139c571" ns3:_="">
     <xsd:import namespace="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
@@ -9217,24 +9240,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13C89260-6A33-414C-83F0-E5B9246A3D13}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0533F00C-0963-49FD-8F56-1D7BEE7748FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258D9EFD-9B95-4534-A4E8-FFA045315823}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9250,22 +9274,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0533F00C-0963-49FD-8F56-1D7BEE7748FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13C89260-6A33-414C-83F0-E5B9246A3D13}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_Documentacion/G6_MAPA_PROC_14N.xlsx
+++ b/01_Documentacion/G6_MAPA_PROC_14N.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\SEMESTRES U\10MO NIVEL\ASEGURAMIENTO CALIDAD SOFTWARE\REPOSITORIO\01_Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCC2FD9-8894-44D6-8658-9432B139CF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F989BE-AE2C-4E8E-8F97-49A4378C1D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4997B183-6BA5-427C-8615-A6F9FCD80629}"/>
   </bookViews>
@@ -37,10 +37,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t xml:space="preserve">UNIVERSIDAD DE LAS FUERZAS ARMADAS UFA - ESPE
- MAPA DE PROCESOS DE 10 NIVELES Proceso normal de venta de </t>
-  </si>
   <si>
     <t>Nivel 1</t>
   </si>
@@ -136,6 +132,10 @@
   </si>
   <si>
     <t>Nivel 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIVERSIDAD DE LAS FUERZAS ARMADAS UFA - ESPE
+ MAPA DE PROCESOS DE 10 NIVELES Proceso de gestion de pedidos del restaurante Parrilladas Kandela </t>
   </si>
 </sst>
 </file>
@@ -4847,8 +4847,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9126894" y="6588181"/>
-          <a:ext cx="859725" cy="910857"/>
+          <a:off x="9132907" y="6593976"/>
+          <a:ext cx="860273" cy="915231"/>
           <a:chOff x="9484702" y="2765066"/>
           <a:chExt cx="1089646" cy="1074767"/>
         </a:xfrm>
@@ -5305,8 +5305,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13315628" y="6693944"/>
-          <a:ext cx="842471" cy="916192"/>
+          <a:off x="13324376" y="6700614"/>
+          <a:ext cx="843564" cy="919691"/>
           <a:chOff x="9484702" y="2765066"/>
           <a:chExt cx="1089646" cy="1074767"/>
         </a:xfrm>
@@ -6511,12 +6511,12 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>392546</xdr:colOff>
+      <xdr:colOff>543208</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="Rectángulo redondeado 5">
@@ -6533,8 +6533,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="14949055" y="13886584"/>
-              <a:ext cx="3766127" cy="2032001"/>
+              <a:off x="14733006" y="13458259"/>
+              <a:ext cx="3856776" cy="1991764"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
               <a:avLst/>
@@ -6681,7 +6681,7 @@
               <a:pPr algn="l"/>
               <a:r>
                 <a:rPr lang="es-EC" sz="1100" baseline="0"/>
-                <a:t>-Satisfaccion del Cliente</a:t>
+                <a:t>-Prpmedio total de pedidos</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -6815,6 +6815,30 @@
                           </a:rPr>
                           <m:t>𝑝𝑒𝑑𝑖𝑑𝑜𝑠</m:t>
                         </m:r>
+                        <m:r>
+                          <a:rPr lang="es-EC" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-EC" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑒𝑥𝑖𝑡𝑜𝑠𝑜𝑠</m:t>
+                        </m:r>
                       </m:num>
                       <m:den>
                         <m:r>
@@ -6925,6 +6949,18 @@
                           </a:rPr>
                           <m:t>𝑝𝑒𝑑𝑖𝑑𝑜𝑠</m:t>
                         </m:r>
+                        <m:r>
+                          <a:rPr lang="es-EC" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
                       </m:den>
                     </m:f>
                     <m:r>
@@ -6953,7 +6989,279 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr algn="l"/>
+              <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-EC" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-EC" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑇𝑖𝑒𝑚𝑝𝑜</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-EC" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-EC" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑒</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-EC" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-EC" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑝𝑒𝑑𝑖𝑑𝑜</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-EC" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> (</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-EC" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑚𝑖𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-EC" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-EC" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑇𝑖𝑒𝑚𝑝𝑜</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-EC" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-EC" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑡𝑜𝑡𝑎𝑙</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-EC" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-EC" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑒</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-EC" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-EC" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑝𝑒𝑑𝑖𝑑𝑜</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-EC" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> (</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-EC" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑚𝑖𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-EC" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="es-EC" sz="1100" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>×100</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-EC">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:br>
+                <a:rPr lang="es-EC" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+              </a:br>
               <a:br>
                 <a:rPr lang="es-EC" sz="1100" baseline="0"/>
               </a:br>
@@ -6968,10 +7276,10 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="36" name="Rectángulo redondeado 5">
+            <xdr:cNvPr id="7" name="Rectángulo redondeado 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C85124-9915-4A83-AA64-1C1D54EC5602}"/>
@@ -6985,8 +7293,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="14949055" y="13886584"/>
-              <a:ext cx="3766127" cy="2032001"/>
+              <a:off x="14733006" y="13458259"/>
+              <a:ext cx="3856776" cy="1991764"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
               <a:avLst/>
@@ -7133,7 +7441,7 @@
               <a:pPr algn="l"/>
               <a:r>
                 <a:rPr lang="es-EC" sz="1100" baseline="0"/>
-                <a:t>-Satisfaccion del Cliente</a:t>
+                <a:t>-Prpmedio total de pedidos</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -7168,11 +7476,59 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(𝑁ú𝑚𝑒𝑟𝑜 𝑑𝑒 𝑝𝑒𝑑𝑖𝑑𝑜𝑠)/(𝑁ú𝑚𝑒𝑟𝑜 𝑡𝑜𝑡𝑎𝑙 𝑑𝑒 𝑝𝑒𝑑𝑖𝑑𝑜𝑠)×100</a:t>
+                <a:t>(𝑁ú𝑚𝑒𝑟𝑜 𝑑𝑒 𝑝𝑒𝑑𝑖𝑑𝑜</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-EC" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑠 𝑒𝑥𝑖𝑡𝑜𝑠𝑜𝑠)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-EC" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑁ú𝑚𝑒𝑟𝑜 𝑡𝑜𝑡𝑎𝑙 𝑑𝑒 𝑝𝑒𝑑𝑖𝑑𝑜𝑠</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-EC" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-EC" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>×100</a:t>
               </a:r>
               <a:endParaRPr lang="es-EC" sz="1100">
                 <a:solidFill>
@@ -7185,7 +7541,95 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr algn="l"/>
+              <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+              <a:r>
+                <a:rPr lang="es-EC" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-EC" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑇𝑖𝑒𝑚𝑝𝑜 𝑑𝑒 𝑝𝑒𝑑𝑖𝑑𝑜 (𝑚𝑖𝑛)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-EC" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-EC" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑇𝑖𝑒𝑚𝑝𝑜 𝑡𝑜𝑡𝑎𝑙 𝑑𝑒 𝑝𝑒𝑑𝑖𝑑𝑜 (𝑚𝑖𝑛)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-EC" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-EC" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>×100</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-EC">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:br>
+                <a:rPr lang="es-EC" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+              </a:br>
               <a:br>
                 <a:rPr lang="es-EC" sz="1100" baseline="0"/>
               </a:br>
@@ -7369,15 +7813,11 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="es-EC" sz="1100" baseline="0"/>
-            <a:t>-Asegurar un porcentaje de 95% de los pedidos se completen sin errores.</a:t>
+            <a:t>-Asegurar un porcentaje de 95% de los pedidos se completen sin errores al final del dia.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="es-EC" sz="1100" baseline="0"/>
-            <a:t>-Mejorar la Satisfaccion del cliente.</a:t>
-          </a:r>
           <a:endParaRPr lang="es-EC" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -8343,15 +8783,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAE3A4D-6C57-42F5-813D-06E56D78CC84}">
   <dimension ref="A2:BA84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="101" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:53" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -8569,7 +9009,7 @@
     <row r="10" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -8578,7 +9018,7 @@
     <row r="11" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -8601,14 +9041,14 @@
     <row r="14" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -8636,7 +9076,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="I18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V18" s="3"/>
     </row>
@@ -8664,7 +9104,7 @@
     <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -8672,7 +9112,7 @@
     </row>
     <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -8686,7 +9126,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="N24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8706,7 +9146,7 @@
     <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -8715,7 +9155,7 @@
     <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -8731,7 +9171,7 @@
     <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -8739,7 +9179,7 @@
     </row>
     <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -8756,7 +9196,7 @@
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -8765,13 +9205,13 @@
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="J34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8784,7 +9224,7 @@
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -8792,7 +9232,7 @@
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -8809,7 +9249,7 @@
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -8818,7 +9258,7 @@
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -8834,7 +9274,7 @@
     <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -8843,7 +9283,7 @@
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -8872,13 +9312,13 @@
     <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8888,34 +9328,34 @@
     <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
@@ -8926,17 +9366,17 @@
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B82" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -9054,23 +9494,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100EDB39E34F5A9B445B025C05B2A05D030" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b862f8177741bc0144f8bdeca99601f0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f1f31ffb-9912-4459-99c8-b26e82094b51" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a47f7967ce9c055f87f5b0315139c571" ns3:_="">
     <xsd:import namespace="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
@@ -9240,10 +9663,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13C89260-6A33-414C-83F0-E5B9246A3D13}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258D9EFD-9B95-4534-A4E8-FFA045315823}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9259,19 +9709,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258D9EFD-9B95-4534-A4E8-FFA045315823}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13C89260-6A33-414C-83F0-E5B9246A3D13}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/01_Documentacion/G6_MAPA_PROC_14N.xlsx
+++ b/01_Documentacion/G6_MAPA_PROC_14N.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\SEMESTRES U\10MO NIVEL\ASEGURAMIENTO CALIDAD SOFTWARE\REPOSITORIO\01_Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F989BE-AE2C-4E8E-8F97-49A4378C1D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D1115C-3C98-4FC1-AAB6-46F216D4A805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4997B183-6BA5-427C-8615-A6F9FCD80629}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Nivel 1</t>
   </si>
@@ -306,15 +306,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>47493</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>39217</xdr:rowOff>
+      <xdr:colOff>469988</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>400969</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>31597</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38831</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91953</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -332,8 +332,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4580079" y="2962407"/>
-          <a:ext cx="1108907" cy="944880"/>
+          <a:off x="5177790" y="2815612"/>
+          <a:ext cx="1138110" cy="935450"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -465,15 +465,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>194310</xdr:colOff>
+      <xdr:colOff>103775</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:rowOff>34592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>659130</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:colOff>568595</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>162246</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -488,8 +488,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="1767840" y="2636520"/>
-          <a:ext cx="487680" cy="464820"/>
+          <a:off x="1653011" y="4468187"/>
+          <a:ext cx="504882" cy="464820"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -527,14 +527,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>603640</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>708660</xdr:colOff>
+      <xdr:colOff>143346</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
@@ -554,8 +554,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2607945" y="4391025"/>
-          <a:ext cx="1567815" cy="853440"/>
+          <a:off x="2172907" y="4377350"/>
+          <a:ext cx="1108974" cy="844010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -590,7 +590,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>1. Selección de mesa </a:t>
+            <a:t>1. Asignación de mesa </a:t>
           </a:r>
           <a:endParaRPr lang="es-EC">
             <a:effectLst/>
@@ -602,16 +602,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209210</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>159869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>117771</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>60809</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -629,8 +629,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4518660" y="2522220"/>
-          <a:ext cx="1493520" cy="815340"/>
+          <a:off x="4917012" y="4384819"/>
+          <a:ext cx="1477828" cy="844010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -969,15 +969,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>784860</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>286919</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>166131</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>678180</xdr:colOff>
+      <xdr:colOff>180239</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>30857</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -995,8 +995,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2369820" y="3672840"/>
-          <a:ext cx="1478280" cy="236220"/>
+          <a:off x="1856186" y="5522765"/>
+          <a:ext cx="1462588" cy="241953"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1028,7 +1028,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Cliente</a:t>
+            <a:t>Asistente</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1038,15 +1038,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105913</xdr:colOff>
+      <xdr:colOff>490686</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>181077</xdr:rowOff>
+      <xdr:rowOff>135809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>239263</xdr:colOff>
+      <xdr:colOff>624036</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>86407</xdr:rowOff>
+      <xdr:rowOff>41139</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1064,8 +1064,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6135652" y="5581338"/>
-          <a:ext cx="1640785" cy="286330"/>
+          <a:off x="6767755" y="5492443"/>
+          <a:ext cx="1702618" cy="282557"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1554,16 +1554,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>354594</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>183048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>226336</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>181068</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1581,8 +1581,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2286000" y="8439150"/>
-          <a:ext cx="1343025" cy="762000"/>
+          <a:off x="1923861" y="8368890"/>
+          <a:ext cx="1441010" cy="941089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1616,7 +1616,7 @@
               <a:ea typeface="+mn-lt"/>
               <a:cs typeface="+mn-lt"/>
             </a:rPr>
-            <a:t>Asegurarse de que la</a:t>
+            <a:t>Asegurarse de que</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -1627,19 +1627,7 @@
               <a:ea typeface="+mn-lt"/>
               <a:cs typeface="+mn-lt"/>
             </a:rPr>
-            <a:t> app muestre </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-EC" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>en tiempo real la disponibilidad de mesas</a:t>
+            <a:t> el Cliente consiga una mesa. </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -1656,14 +1644,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>231240</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>649941</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>385882</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>168087</xdr:rowOff>
     </xdr:to>
@@ -1683,8 +1671,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4249271" y="8417298"/>
-          <a:ext cx="1656229" cy="939613"/>
+          <a:off x="4939042" y="8366816"/>
+          <a:ext cx="1723909" cy="930182"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2079,16 +2067,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>708660</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>686555</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>4536</xdr:rowOff>
+      <xdr:rowOff>16032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209210</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>12156</xdr:rowOff>
+      <xdr:rowOff>23338</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2100,14 +2088,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="20" idx="3"/>
+          <a:stCxn id="13" idx="3"/>
           <a:endCxn id="21" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3901803" y="2907393"/>
-          <a:ext cx="645886" cy="7620"/>
+          <a:off x="4609723" y="4806824"/>
+          <a:ext cx="307289" cy="7306"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2135,16 +2123,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>117771</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>170724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
+      <xdr:colOff>333997</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>4536</xdr:rowOff>
+      <xdr:rowOff>16032</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2170,8 +2158,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6052820" y="2892153"/>
-          <a:ext cx="539206" cy="15240"/>
+          <a:off x="6394840" y="4772902"/>
+          <a:ext cx="216226" cy="33922"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2436,16 +2424,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>157239</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>602367</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>96762</xdr:rowOff>
+      <xdr:rowOff>59039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4839</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>449968</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>104382</xdr:rowOff>
+      <xdr:rowOff>66659</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2460,8 +2448,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1753810" y="3181048"/>
-          <a:ext cx="645886" cy="7620"/>
+          <a:off x="1387001" y="5038445"/>
+          <a:ext cx="632234" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2489,16 +2477,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>556522</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>224561</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>183931</xdr:rowOff>
+      <xdr:rowOff>131120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>558362</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226401</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>151349</xdr:rowOff>
+      <xdr:rowOff>98538</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2515,8 +2503,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5089108" y="3869121"/>
-          <a:ext cx="1840" cy="538918"/>
+          <a:off x="5716997" y="3790229"/>
+          <a:ext cx="1840" cy="533259"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2605,16 +2593,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>27577</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>253914</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>161713</xdr:rowOff>
+      <xdr:rowOff>139079</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>728618</xdr:colOff>
+      <xdr:colOff>170321</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>94464</xdr:rowOff>
+      <xdr:rowOff>71830</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2632,8 +2620,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2522220" y="1718975"/>
-          <a:ext cx="1532588" cy="492156"/>
+          <a:off x="1823181" y="2130841"/>
+          <a:ext cx="1485675" cy="468415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2676,16 +2664,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>799859</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>26852</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>339490</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>124932</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>669352</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>224224</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>125912</xdr:rowOff>
+      <xdr:rowOff>65556</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2703,8 +2691,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4957597" y="1750423"/>
-          <a:ext cx="1532588" cy="492156"/>
+          <a:off x="5047292" y="2116694"/>
+          <a:ext cx="1454001" cy="476288"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2999,16 +2987,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238784</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>91666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>214841</xdr:colOff>
+      <xdr:colOff>742959</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>103713</xdr:rowOff>
+      <xdr:rowOff>81079</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3026,8 +3014,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4305300" y="7781925"/>
-          <a:ext cx="481541" cy="560913"/>
+          <a:off x="4946586" y="7711666"/>
+          <a:ext cx="504175" cy="555255"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -3209,16 +3197,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>646459</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>344677</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>34372</xdr:rowOff>
+      <xdr:rowOff>19283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>193635</xdr:colOff>
+      <xdr:colOff>676486</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>167722</xdr:rowOff>
+      <xdr:rowOff>152633</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3236,8 +3224,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5922481" y="4482133"/>
-          <a:ext cx="1808328" cy="704850"/>
+          <a:off x="6621746" y="4432847"/>
+          <a:ext cx="1901077" cy="699192"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -3375,16 +3363,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>560076</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>258293</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>44554</xdr:rowOff>
+      <xdr:rowOff>29465</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>42332</xdr:colOff>
+      <xdr:colOff>525183</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>34372</xdr:rowOff>
+      <xdr:rowOff>19283</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3410,8 +3398,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="5768676" y="3425019"/>
-          <a:ext cx="370818" cy="1743409"/>
+          <a:off x="6485285" y="3331246"/>
+          <a:ext cx="367045" cy="1836157"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4568,16 +4556,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>377228</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>63468</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>586316</xdr:colOff>
+      <xdr:colOff>178910</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>113238</xdr:rowOff>
+      <xdr:rowOff>52881</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4595,8 +4583,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2600325" y="7791450"/>
-          <a:ext cx="586316" cy="560913"/>
+          <a:off x="1946495" y="7683468"/>
+          <a:ext cx="586316" cy="555255"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -6220,16 +6208,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>521804</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152120</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>182217</xdr:rowOff>
+      <xdr:rowOff>152040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>443699</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>74016</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>45057</xdr:rowOff>
+      <xdr:rowOff>14880</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6247,8 +6235,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4290391" y="5582478"/>
-          <a:ext cx="1429330" cy="243840"/>
+          <a:off x="4859922" y="5508674"/>
+          <a:ext cx="1491163" cy="240067"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6515,8 +6503,8 @@
       <xdr:row>79</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="Rectángulo redondeado 5">
@@ -7004,7 +6992,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7237,7 +7225,7 @@
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7276,7 +7264,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="Rectángulo redondeado 5">
@@ -8461,6 +8449,376 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>384771</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>686555</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>184320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Diagrama de flujo: decisión 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6407C3F-ECF3-4C2B-B2C6-BBCD6AE40544}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{50B8808F-E4A6-46B7-8B19-D1465C92FAC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3523306" y="4464534"/>
+          <a:ext cx="1086417" cy="699192"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Disponibilidad de</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> la mesa</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-EC" sz="900">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>143346</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>8563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>384771</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>23338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Conector recto de flecha 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0F6B8E-1715-4C45-ADFA-4A51BF2EEC22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3281881" y="4799355"/>
+          <a:ext cx="241425" cy="14775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>373493</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>149466</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>35882</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Conector angular 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3539382E-BF4B-4FF2-B719-8DDA9DA4463A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3F533987-444C-4542-8071-71DF77A5E1DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:endCxn id="20" idx="0"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{3F533987-444C-4542-8071-71DF77A5E1DC}" end="{F5CD8D6D-603D-4555-BC86-CB58AF795698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2727394" y="4377351"/>
+          <a:ext cx="1345240" cy="72095"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -333"/>
+            <a:gd name="adj2" fmla="val 417082"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>318605</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>145006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>626198</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>30179</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rectángulo 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29B8E94-36E1-462C-B7D0-AC44AC038A58}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D0DB09A1-A293-4670-9ACA-5E25814523E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3457140" y="5501640"/>
+          <a:ext cx="1092226" cy="262400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Asistente</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8783,8 +9141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAE3A4D-6C57-42F5-813D-06E56D78CC84}">
   <dimension ref="A2:BA84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="101" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AG4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="101" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9074,7 +9432,9 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I18" t="s">
         <v>4</v>
       </c>
@@ -9494,6 +9854,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100EDB39E34F5A9B445B025C05B2A05D030" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b862f8177741bc0144f8bdeca99601f0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f1f31ffb-9912-4459-99c8-b26e82094b51" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a47f7967ce9c055f87f5b0315139c571" ns3:_="">
     <xsd:import namespace="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
@@ -9663,24 +10040,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13C89260-6A33-414C-83F0-E5B9246A3D13}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0533F00C-0963-49FD-8F56-1D7BEE7748FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258D9EFD-9B95-4534-A4E8-FFA045315823}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9696,22 +10074,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0533F00C-0963-49FD-8F56-1D7BEE7748FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13C89260-6A33-414C-83F0-E5B9246A3D13}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>